--- a/Test/MultiPSO/Explore150Exploit200/ALLCONError_125.xlsx
+++ b/Test/MultiPSO/Explore150Exploit200/ALLCONError_125.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.007649918449100733</v>
+        <v>0.006271533785435024</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0009848240971898645</v>
+        <v>0.001570763447872979</v>
       </c>
       <c r="C1" t="n">
-        <v>0.00301036574488207</v>
+        <v>0.001308309843568003</v>
       </c>
       <c r="D1" t="n">
-        <v>0.002388218698180196</v>
+        <v>0.001754888151908396</v>
       </c>
       <c r="E1" t="n">
-        <v>0.003349381803679577</v>
+        <v>0.004310851778506264</v>
       </c>
       <c r="F1" t="n">
-        <v>0.005193746691434475</v>
+        <v>0.002595294239420148</v>
       </c>
       <c r="G1" t="n">
-        <v>0.007237879948195851</v>
+        <v>0.002227520346920035</v>
       </c>
       <c r="H1" t="n">
-        <v>0.003072071960481336</v>
+        <v>0.002717837943634051</v>
       </c>
       <c r="I1" t="n">
-        <v>0.007678505251051453</v>
+        <v>0.006816938101065926</v>
       </c>
       <c r="J1" t="n">
-        <v>0.008684229427351789</v>
+        <v>0.008528333515730614</v>
       </c>
     </row>
   </sheetData>
